--- a/public/template/StudentDetailTemplate.xlsx
+++ b/public/template/StudentDetailTemplate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>student_id</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>dfg</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>class</t>
   </si>
 </sst>
 </file>
@@ -53,7 +62,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -86,7 +95,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,18 +397,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,13 +418,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -421,13 +435,16 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>44542</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>34</v>
       </c>
@@ -435,13 +452,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>44542</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>43</v>
       </c>
@@ -449,9 +469,12 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>44542</v>
       </c>
     </row>
